--- a/assets/disciplinas/LOQ4248.xlsx
+++ b/assets/disciplinas/LOQ4248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos o panorama geral da administração estratégica de marketing, capacitando-os a atuar no processo gerencial de marketing sob as perspectivas estratégica e operacional.</t>
+    <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>11079086 - Herlandí de Souza Andrade</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Marketing estratégico e planejamento estratégico orientado para o mercado.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>MARKETING ESTRATÉGICO1. Evolução do Conceito de Marketing e Sistema de Marketing2. Marketing, Conceito de Valor, Orientação para Mercado3. Análise de Mercado e Comportamento do Consumidor4. Sistema de Informações de Marketing e Inteligência de Mercado5. Modalidades de Marketing6. Fundamentos de Estratégia Empresarial e Marketing Estratégico7. Administração Estratégica e Marketing Estratégico8. Instrumentos Analíticos para Avaliar Oportunidades de Mercado9. Segmentação de Mercado e Posicionamento10. O Plano Estratégico de Marketing11. Comunicação: assessorias de imprensa, SAC'S, Ombudsman</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Aritmética dos Projetos, Trabalhos, Exercícios e outras atividades avaliativas realizadas no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude, que incluem a presença e participação dos alunos nas aulas) desenvolvidas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>KOTLER, P.; KELLER, K. L. Administração De Marketing. 15 ed. São Paulo: Pearson, 2019.KOTLER, P.; KARTAJAYA, H.; SETIAWAN, I. Marketing 4.0: do Tradicional ao Digital. São Paulo: Sextante, 2017.KOTLER, P. - ARMSTRONG, G. Princípios De Marketing. 15 ed. São Paulo: Pearson, 2014.KOTLER, P.; KELLER, K. L.  Marketing Essencial. 5 ed. São Paulo: Pearson, 2013.SANDHUSEN, R. L. Marketing Básico - Série Essencial. 3 ed. São Paulo: Saraiva, 2010.SAPIRO, Arão., CHIAVENATO, I. Planejamento Estratégico. Campus, 2ª. edição, 2010 KOTLER, P. Administração de Marketing, edição do milênio, revisão técnica de Prof. Arão Sapiro. Prentice-Hall, 2000. HOOLEY, Graham J.; PIERCY, Nigel F.; SAUNDERS, John A. Estratégia de Marketing e Posicionamento Competitivo tradução e revisão técnica: Prof. Arão Sapiro. Pearson Education do Brasil, 2001. SAPIRO, ARAO; GANGANA, MAURÍCIO; LIMA, MIGUEL; VILHENA, JOÃO BAPTISTA. Gestão de Marketing . FGV Editora, 2004. BOONE, L. e KURTZ, D.L. Marketing contemporâneo. 8ª ed. São Paulo, Livros Técnicos e Científicos, 1998. KOTLER, P; JATURISPITAK, S. e MAESINCIE, S. O marketing das nações. São Paulo, Futura, 1997. MARTINS, J.R. e BLECHER, N. O império das marcas. 2ª ed. São Paulo, Negócio Editora, 1997 THUROW, L.C. O futuro do capitalismo. 2ª ed. São Paulo, Rocco, 1997. VAZ, G. N. Marketing institucional. São Paulo, Pioneira, 1995. Bibliografia Complementar Artigos das Revistas: Marketing, Meio e Mensagem, Exame, Dinheiro, Revista da Escola de Administração da FEA-USP, Revista ESPM.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4248.xlsx
+++ b/assets/disciplinas/LOQ4248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar aos alunos o panorama geral da administração estratégica de marketing, capacitando-os a atuar no processo gerencial de marketing sob as perspectivas estratégica e operacional.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Introduce students to the overall picture of strategic marketing management, empowering them to act in the managerial marketing process under strategic and operational perspectives.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Introduce students to the overall picture of strategic marketing management, empowering them to act in the managerial marketing process under strategic and operational perspectives.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Marketing estratégico e planejamento estratégico orientado para o mercado.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>MARKETING ESTRATÉGICO1. Evolução do Conceito de Marketing e Sistema de Marketing2. Marketing, Conceito de Valor, Orientação para Mercado3. Análise de Mercado e Comportamento do Consumidor4. Sistema de Informações de Marketing e Inteligência de Mercado5. Modalidades de Marketing6. Fundamentos de Estratégia Empresarial e Marketing Estratégico7. Administração Estratégica e Marketing Estratégico8. Instrumentos Analíticos para Avaliar Oportunidades de Mercado9. Segmentação de Mercado e Posicionamento10. O Plano Estratégico de Marketing11. Comunicação: assessorias de imprensa, SAC'S, Ombudsman</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
+    <t>Média Aritmética dos Projetos, Trabalhos, Exercícios e outras atividades avaliativas realizadas no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude, que incluem a presença e participação dos alunos nas aulas) desenvolvidas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Aritmética dos Projetos, Trabalhos, Exercícios e outras atividades avaliativas realizadas no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude, que incluem a presença e participação dos alunos nas aulas) desenvolvidas.</t>
+    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
+    <t>KOTLER, P.; KELLER, K. L. Administração De Marketing. 15 ed. São Paulo: Pearson, 2019.KOTLER, P.; KARTAJAYA, H.; SETIAWAN, I. Marketing 4.0: do Tradicional ao Digital. São Paulo: Sextante, 2017.KOTLER, P. - ARMSTRONG, G. Princípios De Marketing. 15 ed. São Paulo: Pearson, 2014.KOTLER, P.; KELLER, K. L.  Marketing Essencial. 5 ed. São Paulo: Pearson, 2013.SANDHUSEN, R. L. Marketing Básico - Série Essencial. 3 ed. São Paulo: Saraiva, 2010.SAPIRO, Arão., CHIAVENATO, I. Planejamento Estratégico. Campus, 2ª. edição, 2010 KOTLER, P. Administração de Marketing, edição do milênio, revisão técnica de Prof. Arão Sapiro. Prentice-Hall, 2000. HOOLEY, Graham J.; PIERCY, Nigel F.; SAUNDERS, John A. Estratégia de Marketing e Posicionamento Competitivo tradução e revisão técnica: Prof. Arão Sapiro. Pearson Education do Brasil, 2001. SAPIRO, ARAO; GANGANA, MAURÍCIO; LIMA, MIGUEL; VILHENA, JOÃO BAPTISTA. Gestão de Marketing . FGV Editora, 2004. BOONE, L. e KURTZ, D.L. Marketing contemporâneo. 8ª ed. São Paulo, Livros Técnicos e Científicos, 1998. KOTLER, P; JATURISPITAK, S. e MAESINCIE, S. O marketing das nações. São Paulo, Futura, 1997. MARTINS, J.R. e BLECHER, N. O império das marcas. 2ª ed. São Paulo, Negócio Editora, 1997 THUROW, L.C. O futuro do capitalismo. 2ª ed. São Paulo, Rocco, 1997. VAZ, G. N. Marketing institucional. São Paulo, Pioneira, 1995. Bibliografia Complementar Artigos das Revistas: Marketing, Meio e Mensagem, Exame, Dinheiro, Revista da Escola de Administração da FEA-USP, Revista ESPM.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
